--- a/AD20211005_「社員勤務表」の選択肢/ThirdTime/ビジネス分析/内容のまとめ_211005.xlsx
+++ b/AD20211005_「社員勤務表」の選択肢/ThirdTime/ビジネス分析/内容のまとめ_211005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\IdeaProjects\MySystemDesignLabo\AD20211005_「社員勤務表」の選択肢\ThirdTime\ビジネス分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A750B815-5283-4724-AA70-92851D0531E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76085D2-9EA8-4930-9940-57FFD8C9127A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AD866B86-1FFF-46FB-8379-D37D2B68EA36}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD866B86-1FFF-46FB-8379-D37D2B68EA36}"/>
   </bookViews>
   <sheets>
     <sheet name="ヒアリング内容" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="50">
   <si>
     <t>これ、区分の設計例としておもしろい。 社内・社外の場所区分と、 稼働・非稼働という状態区分が混在している。 稼働の場合、社内と社外のサブ区分があり、非稼働の場合はサブ区分はない、という感じかな。 社内・社外・非稼働という三区分は排他的網羅にはなるけど、関心事が混在した区分になる。</t>
   </si>
@@ -377,6 +377,23 @@
     <t>(何h?)</t>
     <rPh sb="1" eb="2">
       <t>ナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務状況サブステータス区分</t>
+    <rPh sb="0" eb="4">
+      <t>キンムジョウキョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>午前休</t>
+    <rPh sb="0" eb="3">
+      <t>ゴゼンキュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -385,7 +402,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,8 +441,22 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,6 +541,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -580,7 +623,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -593,7 +636,79 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -605,82 +720,25 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1113,7 +1171,7 @@
   </sheetPr>
   <dimension ref="B2:B38"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1177,9 +1235,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:Z22"/>
+  <dimension ref="B2:AE22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1189,9 +1249,7 @@
     <col min="4" max="4" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.625" style="3" customWidth="1"/>
     <col min="10" max="10" width="3.5" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.5" style="3" bestFit="1" customWidth="1"/>
@@ -1205,514 +1263,636 @@
     <col min="22" max="22" width="23.5" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" style="3"/>
     <col min="24" max="26" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="3"/>
+    <col min="27" max="27" width="9" style="3"/>
+    <col min="28" max="29" width="16.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="J2" s="4" t="s">
+    <row r="2" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="H2" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-    </row>
-    <row r="3" spans="2:26" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="G3" s="28" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+    </row>
+    <row r="3" spans="2:31" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="G3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="8" t="s">
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="9" t="s">
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="31"/>
-    </row>
-    <row r="4" spans="2:26" ht="72.75" x14ac:dyDescent="0.4">
-      <c r="G4" s="32"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="8" t="s">
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="18"/>
+    </row>
+    <row r="4" spans="2:31" ht="72.75" x14ac:dyDescent="0.4">
+      <c r="G4" s="19"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8" t="s">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="8" t="s">
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="8" t="s">
+      <c r="Y4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="33" t="s">
+      <c r="Z4" s="20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B5" s="11" t="s">
+      <c r="AB4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD4" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE4" s="36"/>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16" t="s">
+      <c r="K5" s="10"/>
+      <c r="L5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16" t="s">
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="R5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="16"/>
-      <c r="U5" s="17" t="s">
+      <c r="S5" s="10"/>
+      <c r="U5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="18" t="s">
+      <c r="V5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="X5" s="13" t="s">
+      <c r="X5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Y5" s="13" t="s">
+      <c r="Y5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z5" s="10" t="s">
+      <c r="Z5" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B6" s="11"/>
-      <c r="C6" s="15" t="s">
+      <c r="AB5" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC5" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD5" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE5" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B6" s="24"/>
+      <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16" t="s">
+      <c r="K6" s="10"/>
+      <c r="L6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="N6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16" t="s">
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="16" t="s">
+      <c r="R6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="16"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="18" t="s">
+      <c r="S6" s="10"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="13" t="s">
+      <c r="X6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Y6" s="13" t="s">
+      <c r="Y6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z6" s="10" t="s">
+      <c r="Z6" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="G7" s="13" t="s">
+      <c r="AB6" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC6" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD6" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE6" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16" t="s">
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16" t="s">
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="U7" s="17"/>
-      <c r="V7" s="18" t="s">
+      <c r="U7" s="23"/>
+      <c r="V7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="X7" s="13" t="s">
+      <c r="X7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Y7" s="13" t="s">
+      <c r="Y7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Z7" s="10" t="s">
+      <c r="Z7" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B8" s="22" t="s">
+      <c r="AB7" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC7" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD7" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE7" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="U8" s="17"/>
-      <c r="V8" s="18" t="s">
+      <c r="U8" s="23"/>
+      <c r="V8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="X8" s="13" t="s">
+      <c r="X8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Y8" s="13" t="s">
+      <c r="Y8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Z8" s="10" t="s">
+      <c r="Z8" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B9" s="22"/>
-      <c r="C9" s="20" t="s">
+      <c r="AB8" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC8" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD8" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE8" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B9" s="25"/>
+      <c r="C9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="U9" s="17"/>
-      <c r="V9" s="18" t="s">
+      <c r="U9" s="23"/>
+      <c r="V9" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B11" s="22" t="s">
+      <c r="AB9" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC9" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD9" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE9" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="AB10" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC10" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD10" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE10" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B11" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="15" t="s">
+      <c r="AB11" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD11" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE11" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B13" s="22"/>
-      <c r="C13" s="20" t="s">
+      <c r="AB12" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC12" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD12" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE12" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B13" s="25"/>
+      <c r="C13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="25"/>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B15" s="26" t="s">
+      <c r="E13" s="28"/>
+    </row>
+    <row r="15" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B15" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B16" s="26" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B16" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="B18:V18"/>
+    <mergeCell ref="B19:V19"/>
+    <mergeCell ref="B20:V20"/>
+    <mergeCell ref="B21:V21"/>
+    <mergeCell ref="B22:V22"/>
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="B16:V16"/>
     <mergeCell ref="B17:V17"/>
@@ -1726,11 +1906,7 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="J3:L3"/>
-    <mergeCell ref="B18:V18"/>
-    <mergeCell ref="B19:V19"/>
-    <mergeCell ref="B20:V20"/>
-    <mergeCell ref="B21:V21"/>
-    <mergeCell ref="B22:V22"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AD20211005_「社員勤務表」の選択肢/ThirdTime/ビジネス分析/内容のまとめ_211005.xlsx
+++ b/AD20211005_「社員勤務表」の選択肢/ThirdTime/ビジネス分析/内容のまとめ_211005.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\IdeaProjects\MySystemDesignLabo\AD20211005_「社員勤務表」の選択肢\ThirdTime\ビジネス分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76085D2-9EA8-4930-9940-57FFD8C9127A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13EE8CB-36EE-448D-95B5-67467A37A0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD866B86-1FFF-46FB-8379-D37D2B68EA36}"/>
   </bookViews>
@@ -687,11 +687,29 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -720,25 +738,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1171,7 +1171,9 @@
   </sheetPr>
   <dimension ref="B2:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1271,22 +1273,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
     </row>
     <row r="3" spans="2:31" ht="58.5" x14ac:dyDescent="0.4">
       <c r="G3" s="15" t="s">
@@ -1298,11 +1300,11 @@
       <c r="I3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="31"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="37"/>
       <c r="M3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1328,10 +1330,10 @@
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
-      <c r="X3" s="21" t="s">
+      <c r="X3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="21"/>
+      <c r="Y3" s="27"/>
       <c r="Z3" s="18"/>
     </row>
     <row r="4" spans="2:31" ht="72.75" x14ac:dyDescent="0.4">
@@ -1383,13 +1385,13 @@
       <c r="AC4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" s="35" t="s">
+      <c r="AD4" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="AE4" s="36"/>
+      <c r="AE4" s="24"/>
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1426,7 +1428,7 @@
         <v>15</v>
       </c>
       <c r="S5" s="10"/>
-      <c r="U5" s="23" t="s">
+      <c r="U5" s="29" t="s">
         <v>21</v>
       </c>
       <c r="V5" s="11" t="s">
@@ -1441,13 +1443,13 @@
       <c r="Z5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AB5" s="37" t="s">
+      <c r="AB5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AC5" s="37" t="s">
+      <c r="AC5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AD5" s="38" t="s">
+      <c r="AD5" s="22" t="s">
         <v>11</v>
       </c>
       <c r="AE5" s="20" t="s">
@@ -1455,7 +1457,7 @@
       </c>
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B6" s="24"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
@@ -1490,7 +1492,7 @@
         <v>15</v>
       </c>
       <c r="S6" s="10"/>
-      <c r="U6" s="23"/>
+      <c r="U6" s="29"/>
       <c r="V6" s="11" t="s">
         <v>17</v>
       </c>
@@ -1503,13 +1505,13 @@
       <c r="Z6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AB6" s="37" t="s">
+      <c r="AB6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AC6" s="37" t="s">
+      <c r="AC6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AD6" s="38" t="s">
+      <c r="AD6" s="22" t="s">
         <v>11</v>
       </c>
       <c r="AE6" s="20" t="s">
@@ -1544,7 +1546,7 @@
       <c r="S7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="U7" s="23"/>
+      <c r="U7" s="29"/>
       <c r="V7" s="11" t="s">
         <v>18</v>
       </c>
@@ -1557,13 +1559,13 @@
       <c r="Z7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AB7" s="37" t="s">
+      <c r="AB7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AC7" s="37" t="s">
+      <c r="AC7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AD7" s="38" t="s">
+      <c r="AD7" s="22" t="s">
         <v>11</v>
       </c>
       <c r="AE7" s="20" t="s">
@@ -1571,13 +1573,13 @@
       </c>
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="U8" s="23"/>
+      <c r="U8" s="29"/>
       <c r="V8" s="11" t="s">
         <v>19</v>
       </c>
@@ -1590,13 +1592,13 @@
       <c r="Z8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AB8" s="37" t="s">
+      <c r="AB8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AC8" s="37" t="s">
+      <c r="AC8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AD8" s="38" t="s">
+      <c r="AD8" s="22" t="s">
         <v>11</v>
       </c>
       <c r="AE8" s="20" t="s">
@@ -1604,21 +1606,21 @@
       </c>
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B9" s="25"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="U9" s="23"/>
+      <c r="U9" s="29"/>
       <c r="V9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AB9" s="37" t="s">
+      <c r="AB9" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="AC9" s="37" t="s">
+      <c r="AC9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AD9" s="38" t="s">
+      <c r="AD9" s="22" t="s">
         <v>12</v>
       </c>
       <c r="AE9" s="20" t="s">
@@ -1626,13 +1628,13 @@
       </c>
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="AB10" s="37" t="s">
+      <c r="AB10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AC10" s="37" t="s">
+      <c r="AC10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AD10" s="38" t="s">
+      <c r="AD10" s="22" t="s">
         <v>13</v>
       </c>
       <c r="AE10" s="20" t="s">
@@ -1640,25 +1642,25 @@
       </c>
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AB11" s="37" t="s">
+      <c r="AB11" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="AC11" s="37" t="s">
+      <c r="AC11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AD11" s="38" t="s">
+      <c r="AD11" s="22" t="s">
         <v>12</v>
       </c>
       <c r="AE11" s="20" t="s">
@@ -1666,19 +1668,19 @@
       </c>
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="24"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AB12" s="37" t="s">
+      <c r="AB12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AC12" s="37" t="s">
+      <c r="AC12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AD12" s="38" t="s">
+      <c r="AD12" s="22" t="s">
         <v>13</v>
       </c>
       <c r="AE12" s="20" t="s">
@@ -1686,217 +1688,207 @@
       </c>
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B13" s="25"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="28"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="15" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="B18:V18"/>
-    <mergeCell ref="B19:V19"/>
-    <mergeCell ref="B20:V20"/>
-    <mergeCell ref="B21:V21"/>
-    <mergeCell ref="B22:V22"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="B16:V16"/>
-    <mergeCell ref="B17:V17"/>
-    <mergeCell ref="B15:V15"/>
     <mergeCell ref="J2:S2"/>
     <mergeCell ref="U5:U9"/>
     <mergeCell ref="B5:B6"/>
@@ -1907,6 +1899,16 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B22:V22"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="B16:V16"/>
+    <mergeCell ref="B17:V17"/>
+    <mergeCell ref="B15:V15"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="B18:V18"/>
+    <mergeCell ref="B19:V19"/>
+    <mergeCell ref="B20:V20"/>
+    <mergeCell ref="B21:V21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
